--- a/素材和想法/警察奋不顾身破案的理由.xlsx
+++ b/素材和想法/警察奋不顾身破案的理由.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263AAAEB-39EC-4C68-B8B9-0AE801F7AAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8A194-AEA3-4001-B6E8-0592F4263711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1050" windowWidth="22650" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>理由</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.案子是积案，警察提供线索但不办案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据办案的回避原则，警察遇到这样的情况必须回避。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,20 @@
   </si>
   <si>
     <t>警察的人设必须是一个除了破案，啥都不会的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇命不可违背，比如狄仁杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能是背景为古代的历史探案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.案子是积案，警察提供线索但不办案
+2.更改职业，比如警察换成律师、私家侦探
+3.隐藏关系，除了警察自己没有知道案子与亲人有关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,18 +536,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -545,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -557,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -567,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -581,12 +591,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/素材和想法/警察奋不顾身破案的理由.xlsx
+++ b/素材和想法/警察奋不顾身破案的理由.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8A194-AEA3-4001-B6E8-0592F4263711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE71F2-77EC-4546-8101-8A4E5B353726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>理由</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
     <t>1.案子是积案，警察提供线索但不办案
 2.更改职业，比如警察换成律师、私家侦探
 3.隐藏关系，除了警察自己没有知道案子与亲人有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感同身受，比如警察的亲属也发生过类似的案子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非现在的案子与警察过去的案子有牵连，否则动力也不强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,6 +617,18 @@
         <v>15</v>
       </c>
       <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
